--- a/medicine/Pharmacie/Maurice_Berger_(chimiste)/Maurice_Berger_(chimiste).xlsx
+++ b/medicine/Pharmacie/Maurice_Berger_(chimiste)/Maurice_Berger_(chimiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Hilaire Berger, né le 2 décembre 1866 à Paris et mort le 1er mars 1930 à Seyssins, est un chimiste amateur français, préparateur en pharmacie, titulaire du brevet de la Lampe Berger.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maurice Berger est né à Paris 16e le 2 décembre 1866 de père inconnu[1]. Il est reconnu, puis légitimé par Louis François Samuel Berger, citoyen suisse installé à Paris, qui épouse sa mère en 1868. Après avoir entrepris des études de pharmacie qu'il ne semble pas avoir terminées, il travaille comme préparateur dans plusieurs officines à Paris.
-Le 16 juin 1898, il dépose le brevet d'une invention faite par un pharmacien parisien, L. Müller, sous l'appellation « Lampe Berger » décrite comme « un diffuseur fumivore hygiénique ». L'objet en question n'est pas une lampe, mais un brûle-parfum destiné à désodoriser et désinfecter tous lieux insalubres (notamment les chambres mortuaires) et neutraliser l'odeur des cigares[2],[3]. Il est commercialisé en 1907, depuis Levallois-Perret où Maurice Berger est préparateur, voire associé de la pharmacie Delouche.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maurice Berger est né à Paris 16e le 2 décembre 1866 de père inconnu. Il est reconnu, puis légitimé par Louis François Samuel Berger, citoyen suisse installé à Paris, qui épouse sa mère en 1868. Après avoir entrepris des études de pharmacie qu'il ne semble pas avoir terminées, il travaille comme préparateur dans plusieurs officines à Paris.
+Le 16 juin 1898, il dépose le brevet d'une invention faite par un pharmacien parisien, L. Müller, sous l'appellation « Lampe Berger » décrite comme « un diffuseur fumivore hygiénique ». L'objet en question n'est pas une lampe, mais un brûle-parfum destiné à désodoriser et désinfecter tous lieux insalubres (notamment les chambres mortuaires) et neutraliser l'odeur des cigares,. Il est commercialisé en 1907, depuis Levallois-Perret où Maurice Berger est préparateur, voire associé de la pharmacie Delouche.
 Sa tombe se trouve au cimetière de Levallois-Perret.
 </t>
         </is>
